--- a/sits/msit_lyran.xlsx
+++ b/sits/msit_lyran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="791">
   <si>
     <t>Designation</t>
   </si>
@@ -921,6 +921,9 @@
       </rPr>
       <t xml:space="preserve">/None</t>
     </r>
+  </si>
+  <si>
+    <t>Y178F</t>
   </si>
   <si>
     <t>PFT Pallet (tug only), max 2 in service, Scout, (2EW:2AF)(1EW:TugAF)</t>
@@ -3602,12 +3605,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -3625,6 +3622,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -3663,16 +3666,16 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3702,7 +3705,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -3711,11 +3714,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3727,7 +3730,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3735,11 +3738,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3751,7 +3754,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3759,11 +3762,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3775,19 +3778,19 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3795,35 +3798,27 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3831,23 +3826,19 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3855,7 +3846,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3863,15 +3854,15 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3899,7 +3890,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3911,7 +3902,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3919,7 +3910,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3946,8 +3937,8 @@
   </sheetPr>
   <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A162" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A165" activeCellId="0" pane="topLeft" sqref="165:166"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A32" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C48" activeCellId="0" pane="topLeft" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4344,7 +4335,7 @@
       <c r="G13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -4358,48 +4349,48 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="27" t="n">
+      <c r="J14" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -4484,7 +4475,7 @@
       <c r="G17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -4569,13 +4560,13 @@
       <c r="G20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="29" t="n">
+      <c r="J20" s="27" t="n">
         <v>2.75</v>
       </c>
       <c r="K20" s="11" t="s">
@@ -4610,7 +4601,7 @@
       <c r="I21" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="30" t="n">
+      <c r="J21" s="28" t="n">
         <v>2.75</v>
       </c>
       <c r="K21" s="17" t="s">
@@ -4645,7 +4636,7 @@
       <c r="I22" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="30" t="n">
+      <c r="J22" s="28" t="n">
         <v>2.75</v>
       </c>
       <c r="K22" s="17" t="s">
@@ -4688,37 +4679,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="24">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="32" t="n">
+      <c r="B24" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="33" t="n">
+      <c r="E24" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="35" t="n">
+      <c r="J24" s="32" t="n">
         <v>2.75</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4800,7 +4791,7 @@
       <c r="I27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="36" t="n">
+      <c r="J27" s="33" t="n">
         <v>2.25</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -4808,34 +4799,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="28">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="32" t="n">
+      <c r="B28" s="30" t="n">
         <v>32</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="33" t="n">
+      <c r="E28" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="38" t="n">
+      <c r="J28" s="35" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -4884,7 +4875,7 @@
       <c r="B30" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4913,37 +4904,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="31">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="40" t="n">
+      <c r="B31" s="37" t="n">
         <v>12</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="42" t="n">
+      <c r="J31" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4954,7 +4945,7 @@
       <c r="B32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="20" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -5004,7 +4995,7 @@
       <c r="G33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="5" t="s">
         <v>163</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -5024,7 +5015,7 @@
       <c r="B34" s="15" t="n">
         <v>89</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="34" t="s">
         <v>167</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -5039,7 +5030,7 @@
       <c r="G34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -5074,7 +5065,7 @@
       <c r="G35" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="5" t="s">
         <v>174</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -5124,7 +5115,7 @@
       <c r="G37" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -5278,107 +5269,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="42">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="40" t="n">
+      <c r="E42" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="42" t="n">
+      <c r="J42" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="43">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="41" t="n">
+      <c r="E43" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="J43" s="42" t="n">
+      <c r="J43" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="20" t="s">
         <v>218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="44">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="40" t="n">
+      <c r="E44" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="J44" s="42" t="n">
+      <c r="J44" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="20" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5389,7 +5380,7 @@
       <c r="B45" s="15" t="n">
         <v>101</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="36" t="s">
         <v>222</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -5424,7 +5415,7 @@
       <c r="B46" s="15" t="n">
         <v>98</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="34" t="s">
         <v>226</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -5439,7 +5430,7 @@
       <c r="G46" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="41" t="s">
         <v>191</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -5497,8 +5488,8 @@
       <c r="C48" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>48</v>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E48" s="15" t="n">
         <v>1</v>
@@ -5523,37 +5514,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="49">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="40" t="n">
+      <c r="E49" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="42" t="n">
+      <c r="J49" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="20" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5588,7 +5579,7 @@
       <c r="J50" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="20" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5623,7 +5614,7 @@
       <c r="J51" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="20" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5634,17 +5625,17 @@
       <c r="B52" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>48</v>
+      <c r="D52" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E52" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>190</v>
@@ -5659,18 +5650,18 @@
         <v>1</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="53">
       <c r="A53" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B53" s="18" t="n">
         <v>100</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>35</v>
@@ -5688,24 +5679,24 @@
         <v>191</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J53" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="K53" s="28" t="s">
-        <v>252</v>
+      <c r="K53" s="20" t="s">
+        <v>253</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B54" s="6" t="n">
         <v>102</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>35</v>
@@ -5723,24 +5714,24 @@
         <v>191</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J54" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="55">
       <c r="A55" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B55" s="15" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="37" t="s">
-        <v>257</v>
+      <c r="C55" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>35</v>
@@ -5749,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>190</v>
@@ -5758,18 +5749,18 @@
         <v>191</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J55" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="K55" s="23" t="s">
-        <v>260</v>
+      <c r="K55" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="56">
       <c r="A56" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5784,7 +5775,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="57">
       <c r="A57" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B57" s="15" t="n">
         <v>52</v>
@@ -5799,68 +5790,68 @@
         <v>9</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H57" s="23" t="s">
         <v>265</v>
       </c>
+      <c r="H57" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="I57" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J57" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="58">
-      <c r="A58" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B58" s="32" t="n">
+      <c r="A58" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="30" t="n">
         <v>73</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="33" t="n">
+      <c r="E58" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="I58" s="31" t="s">
+      <c r="G58" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J58" s="35" t="n">
+      <c r="I58" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J58" s="32" t="n">
         <v>1.75</v>
       </c>
-      <c r="K58" s="31" t="s">
-        <v>271</v>
+      <c r="K58" s="29" t="s">
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="59">
       <c r="A59" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B59" s="15" t="n">
         <v>74</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>60</v>
@@ -5872,30 +5863,30 @@
         <v>15</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I59" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>275</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="J59" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="60">
       <c r="A60" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B60" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>278</v>
+      <c r="C60" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>60</v>
@@ -5907,30 +5898,30 @@
         <v>15</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J60" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="61">
       <c r="A61" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B61" s="18" t="n">
         <v>95</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>162</v>
@@ -5939,67 +5930,67 @@
         <v>9</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J61" s="21" t="n">
         <v>1.5</v>
       </c>
-      <c r="K61" s="28" t="s">
-        <v>287</v>
+      <c r="K61" s="20" t="s">
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="64" outlineLevel="0" r="62">
-      <c r="A62" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" s="25" t="n">
+      <c r="A62" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="C62" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="C62" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="26" t="n">
+      <c r="E62" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>264</v>
+      <c r="F62" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="I62" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="J62" s="27" t="n">
+      <c r="I62" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="J62" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>292</v>
+      <c r="K62" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="63">
       <c r="A63" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B63" s="18" t="n">
         <v>78</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="44" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -6009,33 +6000,33 @@
         <v>8</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J63" s="21" t="n">
         <v>1.5</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="64">
       <c r="A64" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B64" s="15" t="n">
         <v>97</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>60</v>
@@ -6044,22 +6035,22 @@
         <v>9</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>299</v>
+        <v>265</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J64" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="65">
@@ -6098,84 +6089,84 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="66">
-      <c r="A66" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="32" t="n">
+      <c r="A66" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" s="30" t="n">
         <v>76</v>
       </c>
-      <c r="C66" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="33" t="n">
+      <c r="E66" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="G66" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="J66" s="38" t="n">
+      <c r="G66" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J66" s="35" t="n">
         <v>1.5</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86" outlineLevel="0" r="67">
-      <c r="A67" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B67" s="32" t="n">
+      <c r="A67" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" s="30" t="n">
         <v>85</v>
       </c>
-      <c r="C67" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D67" s="31" t="s">
+      <c r="C67" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="33" t="n">
+      <c r="E67" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="I67" s="31" t="s">
+      <c r="G67" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="J67" s="38" t="n">
+      <c r="I67" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="J67" s="35" t="n">
         <v>1.5</v>
       </c>
-      <c r="K67" s="34" t="s">
-        <v>310</v>
+      <c r="K67" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="68">
       <c r="A68" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B68" s="15" t="n">
         <v>77</v>
       </c>
-      <c r="C68" s="37" t="s">
-        <v>312</v>
+      <c r="C68" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>162</v>
@@ -6187,24 +6178,24 @@
         <v>68</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>313</v>
+        <v>265</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J68" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="69">
       <c r="A69" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6219,13 +6210,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="70">
       <c r="A70" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B70" s="6" t="n">
         <v>61</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>35</v>
@@ -6234,33 +6225,33 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J70" s="36" t="n">
+        <v>323</v>
+      </c>
+      <c r="J70" s="33" t="n">
         <v>1.75</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="71">
       <c r="A71" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>48</v>
@@ -6284,12 +6275,12 @@
         <v>0</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="72">
       <c r="A72" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" s="15" t="n">
         <v>90</v>
@@ -6307,30 +6298,30 @@
         <v>147</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="H72" s="23" t="s">
         <v>330</v>
       </c>
+      <c r="H72" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="I72" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="J72" s="29" t="n">
+        <v>332</v>
+      </c>
+      <c r="J72" s="27" t="n">
         <v>2.25</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="73">
       <c r="A73" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B73" s="6" t="n">
         <v>53</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>35</v>
@@ -6342,59 +6333,59 @@
         <v>147</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J73" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="74">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E74" s="8" t="n">
         <v>7</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="J74" s="36" t="n">
+        <v>344</v>
+      </c>
+      <c r="J74" s="33" t="n">
         <v>2.5</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="75">
       <c r="A75" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6409,13 +6400,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="76">
       <c r="A76" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>5</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>27</v>
@@ -6427,24 +6418,24 @@
         <v>123</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J76" s="14" t="n">
         <v>1.5</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="77">
       <c r="A77" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -6459,13 +6450,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="78">
       <c r="A78" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B78" s="6" t="n">
         <v>13</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>27</v>
@@ -6474,33 +6465,33 @@
         <v>6</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J78" s="36" t="n">
+        <v>357</v>
+      </c>
+      <c r="J78" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="79">
       <c r="A79" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B79" s="15" t="n">
         <v>33</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>48</v>
@@ -6512,30 +6503,30 @@
         <v>147</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="J79" s="29" t="n">
+        <v>362</v>
+      </c>
+      <c r="J79" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="80">
       <c r="A80" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B80" s="18" t="n">
         <v>22</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>27</v>
@@ -6547,30 +6538,30 @@
         <v>231</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="J80" s="30" t="n">
+        <v>367</v>
+      </c>
+      <c r="J80" s="28" t="n">
         <v>1.25</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="81">
       <c r="A81" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>369</v>
+      <c r="C81" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>27</v>
@@ -6594,18 +6585,18 @@
         <v>57</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="82">
       <c r="A82" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B82" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="C82" s="39" t="s">
-        <v>372</v>
+      <c r="C82" s="36" t="s">
+        <v>373</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>48</v>
@@ -6617,30 +6608,30 @@
         <v>231</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="J82" s="29" t="n">
+        <v>323</v>
+      </c>
+      <c r="J82" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="83">
       <c r="A83" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B83" s="15" t="n">
         <v>24</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>27</v>
@@ -6652,19 +6643,19 @@
         <v>231</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>377</v>
+        <v>355</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="J83" s="29" t="n">
+        <v>379</v>
+      </c>
+      <c r="J83" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="84">
@@ -6704,13 +6695,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="85">
       <c r="A85" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B85" s="15" t="n">
         <v>44</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>48</v>
@@ -6722,30 +6713,30 @@
         <v>231</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>382</v>
+        <v>355</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="J85" s="29" t="n">
+        <v>362</v>
+      </c>
+      <c r="J85" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="86">
       <c r="A86" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B86" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="C86" s="37" t="s">
-        <v>385</v>
+      <c r="C86" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>27</v>
@@ -6757,65 +6748,65 @@
         <v>153</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>386</v>
+        <v>355</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="J86" s="29" t="n">
+        <v>388</v>
+      </c>
+      <c r="J86" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="87">
-      <c r="A87" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" s="40" t="n">
+      <c r="A87" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="37" t="n">
         <v>70</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="D87" s="28" t="s">
+      <c r="C87" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="41" t="n">
+      <c r="E87" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F87" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="I87" s="28" t="s">
+      <c r="F87" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H87" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="J87" s="49" t="n">
+      <c r="I87" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="J87" s="46" t="n">
         <v>1.25</v>
       </c>
-      <c r="K87" s="28" t="s">
-        <v>393</v>
+      <c r="K87" s="20" t="s">
+        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="88">
       <c r="A88" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B88" s="18" t="n">
         <v>69</v>
       </c>
-      <c r="C88" s="50" t="s">
-        <v>395</v>
+      <c r="C88" s="47" t="s">
+        <v>396</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>162</v>
@@ -6824,68 +6815,68 @@
         <v>6</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="J88" s="30" t="n">
+        <v>398</v>
+      </c>
+      <c r="J88" s="28" t="n">
         <v>1.25</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="89">
-      <c r="A89" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="B89" s="32" t="n">
+      <c r="A89" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B89" s="30" t="n">
         <v>71</v>
       </c>
-      <c r="C89" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="D89" s="31" t="s">
+      <c r="C89" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="33" t="n">
+      <c r="E89" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F89" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="I89" s="31" t="s">
+      <c r="F89" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J89" s="35" t="n">
+      <c r="I89" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="J89" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="90">
       <c r="A90" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B90" s="15" t="n">
         <v>22</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>35</v>
@@ -6897,30 +6888,30 @@
         <v>68</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>406</v>
+        <v>355</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="J90" s="29" t="n">
+        <v>408</v>
+      </c>
+      <c r="J90" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="91">
       <c r="A91" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B91" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="C91" s="37" t="s">
-        <v>410</v>
+      <c r="C91" s="34" t="s">
+        <v>411</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>27</v>
@@ -6932,24 +6923,24 @@
         <v>68</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="J91" s="29" t="n">
+        <v>344</v>
+      </c>
+      <c r="J91" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="92">
       <c r="A92" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B92" s="15" t="n">
         <v>202</v>
@@ -6964,27 +6955,27 @@
         <v>7</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>415</v>
+        <v>355</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J92" s="14" t="n">
         <v>2.5</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="93">
       <c r="A93" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6999,13 +6990,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="94">
       <c r="A94" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B94" s="15" t="n">
         <v>59</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>35</v>
@@ -7017,30 +7008,30 @@
         <v>87</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J94" s="29" t="n">
+        <v>423</v>
+      </c>
+      <c r="J94" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="95">
       <c r="A95" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B95" s="6" t="n">
         <v>59</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>35</v>
@@ -7052,30 +7043,30 @@
         <v>87</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="J95" s="36" t="n">
+        <v>428</v>
+      </c>
+      <c r="J95" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="96">
       <c r="A96" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B96" s="6" t="n">
         <v>59</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>35</v>
@@ -7087,24 +7078,24 @@
         <v>87</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="J96" s="36" t="n">
+        <v>428</v>
+      </c>
+      <c r="J96" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="97">
       <c r="A97" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7119,13 +7110,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="98">
       <c r="A98" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B98" s="15" t="n">
         <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>27</v>
@@ -7134,33 +7125,33 @@
         <v>5</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="H98" s="23" t="s">
         <v>435</v>
       </c>
+      <c r="H98" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="I98" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J98" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="99">
       <c r="A99" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B99" s="15" t="n">
         <v>41</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>27</v>
@@ -7172,30 +7163,30 @@
         <v>94</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J99" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="100">
       <c r="A100" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B100" s="18" t="n">
         <v>93</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>60</v>
@@ -7207,30 +7198,30 @@
         <v>28</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="J100" s="30" t="n">
+        <v>447</v>
+      </c>
+      <c r="J100" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="101">
       <c r="A101" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B101" s="18" t="n">
         <v>39</v>
       </c>
-      <c r="C101" s="47" t="s">
-        <v>449</v>
+      <c r="C101" s="44" t="s">
+        <v>450</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>27</v>
@@ -7242,30 +7233,30 @@
         <v>231</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J101" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="102">
       <c r="A102" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>35</v>
@@ -7277,19 +7268,19 @@
         <v>231</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J102" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="103">
@@ -7329,13 +7320,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="104">
       <c r="A104" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B104" s="15" t="n">
         <v>57</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>35</v>
@@ -7347,24 +7338,24 @@
         <v>153</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J104" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="105">
       <c r="A105" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B105" s="6" t="n">
         <v>203</v>
@@ -7379,33 +7370,33 @@
         <v>6</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J105" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="106">
       <c r="A106" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B106" s="15" t="n">
         <v>204</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>35</v>
@@ -7414,27 +7405,27 @@
         <v>6</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>466</v>
+        <v>435</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="J106" s="29" t="n">
+        <v>468</v>
+      </c>
+      <c r="J106" s="27" t="n">
         <v>2.25</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="107">
       <c r="A107" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -7449,13 +7440,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="108">
       <c r="A108" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B108" s="12" t="n">
         <v>6</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>27</v>
@@ -7467,30 +7458,30 @@
         <v>123</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="J108" s="29" t="n">
+        <v>349</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J108" s="27" t="n">
         <v>1.25</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="109">
       <c r="A109" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B109" s="8" t="n">
         <v>9</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>27</v>
@@ -7502,100 +7493,100 @@
         <v>123</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J109" s="33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="110">
+      <c r="A110" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B110" s="37" t="n">
+        <v>55</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H110" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="J109" s="36" t="n">
+      <c r="I110" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="J110" s="46" t="n">
         <v>1.25</v>
       </c>
-      <c r="K109" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="110">
-      <c r="A110" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B110" s="40" t="n">
-        <v>55</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="41" t="n">
+      <c r="K110" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="111">
+      <c r="A111" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B111" s="37" t="n">
+        <v>72</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F110" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="G110" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="H110" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="J110" s="49" t="n">
+      <c r="F111" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J111" s="46" t="n">
         <v>1.25</v>
       </c>
-      <c r="K110" s="28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="111">
-      <c r="A111" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B111" s="40" t="n">
-        <v>72</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F111" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="I111" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="J111" s="49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K111" s="28" t="s">
-        <v>452</v>
+      <c r="K111" s="20" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="112">
       <c r="A112" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B112" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>27</v>
@@ -7607,30 +7598,30 @@
         <v>68</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="J112" s="36" t="n">
+        <v>493</v>
+      </c>
+      <c r="J112" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="113">
       <c r="A113" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B113" s="6" t="n">
         <v>205</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>35</v>
@@ -7639,27 +7630,27 @@
         <v>6</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="J113" s="36" t="n">
+        <v>496</v>
+      </c>
+      <c r="J113" s="33" t="n">
         <v>1.75</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="114">
       <c r="A114" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -7674,13 +7665,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="115">
       <c r="A115" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B115" s="8" t="n">
         <v>7</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>27</v>
@@ -7692,24 +7683,24 @@
         <v>123</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="J115" s="52" t="n">
+        <v>501</v>
+      </c>
+      <c r="J115" s="49" t="n">
         <v>0.625</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="116">
       <c r="A116" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B116" s="15" t="n">
         <v>31</v>
@@ -7727,30 +7718,30 @@
         <v>135</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I116" s="23" t="s">
-        <v>504</v>
+      <c r="I116" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="J116" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K116" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="117">
       <c r="A117" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B117" s="18" t="n">
         <v>60</v>
       </c>
-      <c r="C117" s="53" t="s">
-        <v>507</v>
+      <c r="C117" s="50" t="s">
+        <v>508</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>216</v>
@@ -7759,66 +7750,66 @@
         <v>4</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J117" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="K117" s="28" t="s">
-        <v>511</v>
+      <c r="K117" s="20" t="s">
+        <v>512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="118">
       <c r="A118" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B118" s="18" t="n">
         <v>94</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="J118" s="54" t="n">
+        <v>517</v>
+      </c>
+      <c r="J118" s="51" t="n">
         <v>0.625</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="119">
       <c r="A119" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B119" s="6" t="n">
         <v>58</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>35</v>
@@ -7830,30 +7821,30 @@
         <v>231</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="J119" s="52" t="n">
+        <v>522</v>
+      </c>
+      <c r="J119" s="49" t="n">
         <v>0.625</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="120">
       <c r="A120" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B120" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>524</v>
+      <c r="C120" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>27</v>
@@ -7865,30 +7856,30 @@
         <v>231</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="J120" s="52" t="n">
+        <v>526</v>
+      </c>
+      <c r="J120" s="49" t="n">
         <v>0.625</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="121">
       <c r="A121" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B121" s="6" t="n">
         <v>84</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>216</v>
@@ -7900,24 +7891,24 @@
         <v>42</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J121" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="122">
       <c r="A122" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7932,13 +7923,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="123">
       <c r="A123" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>35</v>
@@ -7947,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>203</v>
@@ -7956,21 +7947,21 @@
         <v>191</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J123" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="124">
       <c r="A124" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>191</v>
@@ -7982,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>203</v>
@@ -7991,18 +7982,18 @@
         <v>191</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J124" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="125">
       <c r="A125" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -8017,13 +8008,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="126">
       <c r="A126" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B126" s="6" t="n">
         <v>22</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>48</v>
@@ -8032,30 +8023,30 @@
         <v>6</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J126" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="127">
       <c r="A127" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>230</v>
@@ -8070,30 +8061,30 @@
         <v>28</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J127" s="14" t="n">
         <v>0.5</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="128">
       <c r="A128" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>216</v>
@@ -8105,30 +8096,30 @@
         <v>68</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="J128" s="29" t="n">
+        <v>555</v>
+      </c>
+      <c r="J128" s="27" t="n">
         <v>0.75</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="129">
       <c r="A129" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>48</v>
@@ -8140,24 +8131,24 @@
         <v>68</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J129" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="130">
       <c r="A130" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -8172,7 +8163,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="131">
       <c r="A131" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -8187,7 +8178,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="132">
       <c r="A132" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -8202,13 +8193,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="133">
       <c r="A133" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B133" s="6" t="n">
         <v>62</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>60</v>
@@ -8217,22 +8208,22 @@
         <v>0</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J133" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="134">
@@ -8272,13 +8263,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="135">
       <c r="A135" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B135" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>48</v>
@@ -8287,33 +8278,33 @@
         <v>0</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J135" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="136">
       <c r="A136" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>35</v>
@@ -8322,71 +8313,71 @@
         <v>0</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J136" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="137">
-      <c r="A137" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="B137" s="28" t="s">
+      <c r="A137" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="B137" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D137" s="28" t="s">
+      <c r="C137" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="D137" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E137" s="41" t="n">
+      <c r="E137" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G137" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="H137" s="28" t="s">
+      <c r="G137" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="H137" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I137" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="J137" s="42" t="n">
+      <c r="I137" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="J137" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="K137" s="28" t="s">
-        <v>582</v>
+      <c r="K137" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="138">
       <c r="A138" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E138" s="19" t="n">
         <v>6</v>
@@ -8395,30 +8386,30 @@
         <v>168</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J138" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K138" s="28" t="s">
-        <v>588</v>
+      <c r="K138" s="20" t="s">
+        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="139">
       <c r="A139" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B139" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="C139" s="37" t="s">
-        <v>590</v>
+      <c r="C139" s="34" t="s">
+        <v>591</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>35</v>
@@ -8430,30 +8421,30 @@
         <v>68</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>591</v>
+        <v>566</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J139" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="140">
       <c r="A140" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>35</v>
@@ -8465,24 +8456,24 @@
         <v>68</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J140" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="141">
       <c r="A141" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8497,13 +8488,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="142">
       <c r="A142" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B142" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>48</v>
@@ -8512,33 +8503,33 @@
         <v>0</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J142" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="143">
       <c r="A143" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>35</v>
@@ -8547,71 +8538,71 @@
         <v>0</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J143" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="144">
-      <c r="A144" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="B144" s="28" t="s">
+      <c r="A144" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="B144" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="C144" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D144" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E144" s="41" t="n">
+      <c r="E144" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="F144" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G144" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="H144" s="28" t="s">
+      <c r="G144" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="H144" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I144" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="J144" s="42" t="n">
+      <c r="I144" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="J144" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="K144" s="28" t="s">
-        <v>614</v>
+      <c r="K144" s="20" t="s">
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="145">
       <c r="A145" s="17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E145" s="19" t="n">
         <v>3</v>
@@ -8620,30 +8611,30 @@
         <v>61</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J145" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="K145" s="28" t="s">
-        <v>620</v>
+      <c r="K145" s="20" t="s">
+        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="146">
       <c r="A146" s="11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>35</v>
@@ -8655,24 +8646,24 @@
         <v>68</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J146" s="14" t="n">
         <v>0.5</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="147">
       <c r="A147" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8687,13 +8678,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="148">
       <c r="A148" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B148" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>27</v>
@@ -8711,24 +8702,24 @@
         <v>203</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J148" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="149">
       <c r="A149" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D149" s="11" t="s">
         <v>48</v>
@@ -8737,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>55</v>
@@ -8745,25 +8736,25 @@
       <c r="H149" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I149" s="23" t="s">
-        <v>634</v>
+      <c r="I149" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="J149" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="150">
       <c r="A150" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B150" s="12" t="n">
         <v>8</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>60</v>
@@ -8775,30 +8766,30 @@
         <v>135</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J150" s="14" t="n">
         <v>0.2</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="151">
       <c r="A151" s="17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B151" s="18" t="n">
         <v>67</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>60</v>
@@ -8807,33 +8798,33 @@
         <v>3</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H151" s="17" t="s">
         <v>191</v>
       </c>
       <c r="I151" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J151" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="152">
       <c r="A152" s="17" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B152" s="18" t="n">
         <v>33</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>48</v>
@@ -8842,33 +8833,33 @@
         <v>0</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G152" s="17" t="s">
         <v>55</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I152" s="17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J152" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="153">
       <c r="A153" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B153" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>27</v>
@@ -8880,7 +8871,7 @@
         <v>201</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>203</v>
@@ -8892,18 +8883,18 @@
         <v>0</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="154">
       <c r="A154" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>60</v>
@@ -8921,24 +8912,24 @@
         <v>203</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J154" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="155">
       <c r="A155" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B155" s="6" t="n">
         <v>20</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>35</v>
@@ -8956,18 +8947,18 @@
         <v>191</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J155" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="156">
       <c r="A156" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -8982,13 +8973,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="157">
       <c r="A157" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B157" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>27</v>
@@ -8997,33 +8988,33 @@
         <v>0</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>203</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J157" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="158">
       <c r="A158" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B158" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>35</v>
@@ -9035,30 +9026,30 @@
         <v>141</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J158" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="159">
       <c r="A159" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>216</v>
@@ -9076,24 +9067,24 @@
         <v>203</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J159" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K159" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="160">
       <c r="A160" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>35</v>
@@ -9105,24 +9096,24 @@
         <v>173</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J160" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="161">
       <c r="A161" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9172,13 +9163,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="163">
       <c r="A163" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>48</v>
@@ -9187,13 +9178,13 @@
         <v>8</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>203</v>
@@ -9202,18 +9193,18 @@
         <v>0</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="164">
       <c r="A164" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B164" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C164" s="37" t="s">
-        <v>693</v>
+      <c r="C164" s="34" t="s">
+        <v>694</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>27</v>
@@ -9222,13 +9213,13 @@
         <v>9</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="H164" s="23" t="s">
         <v>695</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="I164" s="11" t="s">
         <v>203</v>
@@ -9237,17 +9228,17 @@
         <v>0</v>
       </c>
       <c r="K164" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B165" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="C165" s="39" t="s">
+      <c r="C165" s="36" t="s">
         <v>200</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -9257,33 +9248,33 @@
         <v>0</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>203</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J165" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B166" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="C166" s="39" t="s">
-        <v>701</v>
+      <c r="C166" s="36" t="s">
+        <v>702</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>27</v>
@@ -9292,10 +9283,10 @@
         <v>6</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>203</v>
@@ -9307,88 +9298,88 @@
         <v>0</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="167">
-      <c r="A167" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="B167" s="41" t="n">
+      <c r="A167" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="B167" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="C167" s="53" t="s">
-        <v>704</v>
-      </c>
-      <c r="D167" s="28" t="s">
+      <c r="C167" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="D167" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E167" s="41" t="n">
+      <c r="E167" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F167" s="28" t="s">
+      <c r="F167" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="H167" s="28" t="s">
+      <c r="H167" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I167" s="28" t="s">
-        <v>705</v>
-      </c>
-      <c r="J167" s="42" t="n">
+      <c r="I167" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J167" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="K167" s="28" t="s">
-        <v>706</v>
+      <c r="K167" s="20" t="s">
+        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="168">
-      <c r="A168" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C168" s="43" t="s">
+      <c r="A168" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="D168" s="28" t="s">
+      <c r="B168" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C168" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="D168" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E168" s="41" t="n">
+      <c r="E168" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G168" s="28" t="s">
+      <c r="G168" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="H168" s="28" t="s">
+      <c r="H168" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I168" s="28" t="s">
-        <v>709</v>
-      </c>
-      <c r="J168" s="42" t="n">
+      <c r="I168" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="J168" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="K168" s="28" t="s">
-        <v>635</v>
+      <c r="K168" s="20" t="s">
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="169">
       <c r="A169" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>60</v>
@@ -9400,30 +9391,30 @@
         <v>15</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J169" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K169" s="11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="170">
       <c r="A170" s="11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B170" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="C170" s="39" t="s">
-        <v>718</v>
+      <c r="C170" s="36" t="s">
+        <v>719</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>60</v>
@@ -9435,30 +9426,30 @@
         <v>15</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J170" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="171">
-      <c r="A171" s="23" t="s">
-        <v>722</v>
+      <c r="A171" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="B171" s="15" t="n">
         <v>17</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>35</v>
@@ -9476,24 +9467,24 @@
         <v>191</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J171" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K171" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="172">
       <c r="A172" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B172" s="6" t="n">
         <v>16</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>35</v>
@@ -9511,24 +9502,24 @@
         <v>191</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J172" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="173">
       <c r="A173" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B173" s="15" t="n">
         <v>201</v>
       </c>
-      <c r="C173" s="39" t="s">
-        <v>731</v>
+      <c r="C173" s="36" t="s">
+        <v>732</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>35</v>
@@ -9540,10 +9531,10 @@
         <v>173</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="H173" s="23" t="s">
         <v>733</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="I173" s="11" t="s">
         <v>203</v>
@@ -9552,21 +9543,21 @@
         <v>0</v>
       </c>
       <c r="K173" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="174">
       <c r="A174" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="C174" s="53" t="s">
         <v>737</v>
       </c>
+      <c r="C174" s="50" t="s">
+        <v>738</v>
+      </c>
       <c r="D174" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E174" s="19" t="n">
         <v>9</v>
@@ -9575,10 +9566,10 @@
         <v>173</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H174" s="20" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I174" s="17" t="s">
         <v>203</v>
@@ -9587,82 +9578,82 @@
         <v>0</v>
       </c>
       <c r="K174" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="175">
-      <c r="A175" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="B175" s="25" t="n">
+      <c r="A175" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="B175" s="24" t="n">
         <v>202</v>
       </c>
-      <c r="C175" s="50" t="s">
-        <v>740</v>
-      </c>
-      <c r="D175" s="24" t="s">
+      <c r="C175" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="D175" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E175" s="26" t="n">
+      <c r="E175" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="F175" s="24" t="s">
+      <c r="F175" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G175" s="24" t="s">
-        <v>741</v>
+      <c r="G175" s="23" t="s">
+        <v>742</v>
       </c>
       <c r="H175" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="I175" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="I175" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J175" s="27" t="n">
+      <c r="J175" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K175" s="24" t="s">
-        <v>734</v>
+      <c r="K175" s="23" t="s">
+        <v>735</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="176">
-      <c r="A176" s="31" t="s">
-        <v>743</v>
+      <c r="A176" s="29" t="s">
+        <v>744</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="C176" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="C176" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="D176" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E176" s="33" t="n">
+      <c r="E176" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="F176" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="G176" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="H176" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="I176" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="J176" s="38" t="n">
+      <c r="F176" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G176" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="I176" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="J176" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="K176" s="31" t="s">
-        <v>747</v>
+      <c r="K176" s="29" t="s">
+        <v>748</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="177">
       <c r="A177" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9677,13 +9668,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="178">
       <c r="A178" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>216</v>
@@ -9698,7 +9689,7 @@
         <v>203</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>203</v>
@@ -9707,15 +9698,15 @@
         <v>0</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="179">
       <c r="A179" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>200</v>
@@ -9736,24 +9727,24 @@
         <v>203</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J179" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="180">
       <c r="A180" s="11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B180" s="15" t="n">
         <v>14</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>27</v>
@@ -9768,24 +9759,24 @@
         <v>203</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="I180" s="23" t="s">
         <v>759</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="J180" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K180" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="181">
       <c r="A181" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>200</v>
@@ -9806,18 +9797,18 @@
         <v>203</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J181" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K181" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
       <c r="A182" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9832,13 +9823,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="183">
       <c r="A183" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B183" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>765</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>48</v>
@@ -9847,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G183" s="11" t="s">
         <v>203</v>
@@ -9856,24 +9847,24 @@
         <v>203</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J183" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="184">
       <c r="A184" s="11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>60</v>
@@ -9882,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G184" s="11" t="s">
         <v>203</v>
@@ -9891,13 +9882,13 @@
         <v>203</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J184" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K184" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="185">
@@ -9937,13 +9928,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="186">
       <c r="A186" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>35</v>
@@ -9961,24 +9952,24 @@
         <v>203</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J186" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="187">
       <c r="A187" s="11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>216</v>
@@ -9986,8 +9977,8 @@
       <c r="E187" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F187" s="23" t="s">
-        <v>776</v>
+      <c r="F187" s="5" t="s">
+        <v>777</v>
       </c>
       <c r="G187" s="11" t="s">
         <v>203</v>
@@ -9996,24 +9987,24 @@
         <v>203</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J187" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K187" s="11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="188">
       <c r="A188" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>216</v>
@@ -10022,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>203</v>
@@ -10031,24 +10022,24 @@
         <v>203</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J188" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="189">
       <c r="A189" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>216</v>
@@ -10066,29 +10057,29 @@
         <v>203</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J189" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="190">
-      <c r="A190" s="55" t="s">
-        <v>789</v>
-      </c>
-      <c r="B190" s="55"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="55"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="55"/>
-      <c r="J190" s="55"/>
-      <c r="K190" s="55"/>
+      <c r="A190" s="52" t="s">
+        <v>790</v>
+      </c>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="52"/>
+      <c r="E190" s="52"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="52"/>
+      <c r="I190" s="52"/>
+      <c r="J190" s="52"/>
+      <c r="K190" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/sits/msit_lyran.xlsx
+++ b/sits/msit_lyran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="796">
   <si>
     <t>Designation</t>
   </si>
@@ -2981,6 +2981,58 @@
     <t>See (433.41), (441.0), and (510.3)</t>
   </si>
   <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>R1.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36(12)PP</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">/
+18(6)P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+  </si>
+  <si>
+    <t>SB(1)</t>
+  </si>
+  <si>
+    <t>From BATS: 30+6 From STB: 20+6</t>
+  </si>
+  <si>
+    <t>Upgrade Only</t>
+  </si>
+  <si>
+    <t>Starbase. See EW Chart. See (433.41), (441.0), and (510.3). Module
+Limits 4FTM+2PFM.</t>
+  </si>
+  <si>
     <t>MB (ND)</t>
   </si>
   <si>
@@ -3105,9 +3157,6 @@
     <t>From BATS: 12+ftrs From BS: 15+ftrs</t>
   </si>
   <si>
-    <t>Upgrade Only</t>
-  </si>
-  <si>
     <t>Sector Base; see EW chart.</t>
   </si>
   <si>
@@ -3205,9 +3254,6 @@
       </rPr>
       <t xml:space="preserve">◆</t>
     </r>
-  </si>
-  <si>
-    <t>SB(1)</t>
   </si>
   <si>
     <t>From SB: 24
@@ -3935,10 +3981,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A32" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C48" activeCellId="0" pane="topLeft" sqref="C48"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A161" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H165" activeCellId="0" pane="topLeft" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9231,129 +9277,129 @@
         <v>697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="165">
-      <c r="A165" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="165">
+      <c r="A165" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="B165" s="6" t="n">
-        <v>24</v>
+      <c r="B165" s="11" t="s">
+        <v>699</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D165" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="8" t="n">
+      <c r="E165" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="J165" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="F165" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J165" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="K165" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B166" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>702</v>
+        <v>200</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E166" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>667</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>203</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>203</v>
+        <v>669</v>
       </c>
       <c r="J166" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="167">
-      <c r="A167" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="B167" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C167" s="50" t="s">
-        <v>705</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="38" t="n">
+      <c r="A167" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B167" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J167" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F167" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G167" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H167" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="I167" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="J167" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" s="20" t="s">
-        <v>707</v>
+      <c r="K167" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="168">
       <c r="A168" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C168" s="40" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="B168" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>712</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="E168" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G168" s="20" t="s">
         <v>203</v>
@@ -9362,354 +9408,354 @@
         <v>191</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J168" s="39" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="169">
+      <c r="A169" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C169" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H169" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I169" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="J169" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="20" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="169">
-      <c r="A169" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E169" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="J169" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" s="11" t="s">
-        <v>717</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="170">
       <c r="A170" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="B170" s="15" t="n">
-        <v>45</v>
-      </c>
-      <c r="C170" s="36" t="s">
+      <c r="B170" s="11" t="s">
         <v>719</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>720</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E170" s="12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>191</v>
+        <v>721</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="J170" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K170" s="5" t="s">
-        <v>722</v>
+      <c r="K170" s="11" t="s">
+        <v>723</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="171">
-      <c r="A171" s="5" t="s">
-        <v>723</v>
+      <c r="A171" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="B171" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>724</v>
+        <v>45</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>725</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="15" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="E171" s="12" t="n">
+        <v>6</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>203</v>
+        <v>726</v>
       </c>
       <c r="H171" s="11" t="s">
         <v>191</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J171" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K171" s="11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="172">
+      <c r="K171" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="172">
       <c r="A172" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="B172" s="6" t="n">
+        <v>729</v>
+      </c>
+      <c r="B172" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="J172" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="173">
+      <c r="A173" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B173" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="C173" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E172" s="8" t="n">
+      <c r="E173" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F173" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I172" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="J172" s="9" t="n">
+      <c r="I173" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="J173" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K172" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="173">
-      <c r="A173" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="B173" s="15" t="n">
+      <c r="K173" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="174">
+      <c r="A174" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B174" s="15" t="n">
         <v>201</v>
       </c>
-      <c r="C173" s="36" t="s">
-        <v>732</v>
-      </c>
-      <c r="D173" s="11" t="s">
+      <c r="C174" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E173" s="12" t="n">
+      <c r="E174" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="F174" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="I173" s="11" t="s">
+      <c r="G174" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I174" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="J173" s="14" t="n">
+      <c r="J174" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K173" s="11" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="174">
-      <c r="A174" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="C174" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="D174" s="17" t="s">
+      <c r="K174" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="175">
+      <c r="A175" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="C175" s="50" t="s">
+        <v>743</v>
+      </c>
+      <c r="D175" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="E174" s="19" t="n">
+      <c r="E175" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F174" s="17" t="s">
+      <c r="F175" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G174" s="17" t="s">
+      <c r="G175" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="H174" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="I174" s="17" t="s">
+      <c r="H175" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="I175" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J174" s="21" t="n">
+      <c r="J175" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="K174" s="17" t="s">
+      <c r="K175" s="17" t="s">
         <v>692</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="175">
-      <c r="A175" s="23" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="176">
+      <c r="A176" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="B176" s="24" t="n">
+        <v>202</v>
+      </c>
+      <c r="C176" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G176" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="H176" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J176" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B175" s="24" t="n">
-        <v>202</v>
-      </c>
-      <c r="C175" s="47" t="s">
-        <v>741</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="25" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="177">
+      <c r="A177" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E177" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="F175" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G175" s="23" t="s">
-        <v>742</v>
-      </c>
-      <c r="H175" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="I175" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J175" s="26" t="n">
+      <c r="F177" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G177" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="I177" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="J177" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="K175" s="23" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="176">
-      <c r="A176" s="29" t="s">
-        <v>744</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C176" s="34" t="s">
-        <v>746</v>
-      </c>
-      <c r="D176" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E176" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F176" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G176" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="I176" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="J176" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" s="29" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="177">
-      <c r="A177" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
+      <c r="K177" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="178">
-      <c r="A178" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E178" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="I178" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J178" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>753</v>
-      </c>
+      <c r="A178" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="179">
       <c r="A179" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>326</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>200</v>
+        <v>756</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>216</v>
@@ -9724,156 +9770,156 @@
         <v>203</v>
       </c>
       <c r="H179" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I179" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="I179" s="5" t="s">
-        <v>755</v>
       </c>
       <c r="J179" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="180">
-      <c r="A180" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B180" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C180" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E180" s="12" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="180">
+      <c r="A180" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E180" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G180" s="11" t="s">
+      <c r="F180" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H180" s="11" t="s">
-        <v>759</v>
+      <c r="H180" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="J180" s="14" t="n">
+      <c r="J180" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K180" s="11" t="s">
+      <c r="K180" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="181">
       <c r="A181" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>586</v>
+      <c r="B181" s="15" t="n">
+        <v>14</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>200</v>
+        <v>763</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="E181" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>203</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="J181" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K181" s="11" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
-      <c r="A182" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="183">
-      <c r="A183" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="B183" s="11" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="182">
+      <c r="A182" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="C183" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E183" s="12" t="n">
+      <c r="B182" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E182" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F183" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="G183" s="11" t="s">
+      <c r="F182" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H183" s="11" t="s">
+      <c r="H182" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I183" s="11" t="s">
+      <c r="I182" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="J183" s="14" t="n">
+      <c r="J182" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K183" s="11" t="s">
-        <v>766</v>
-      </c>
+      <c r="K182" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="183">
+      <c r="A183" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="184">
       <c r="A184" s="11" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>769</v>
+        <v>772</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E184" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G184" s="11" t="s">
         <v>203</v>
@@ -9881,8 +9927,8 @@
       <c r="H184" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I184" s="5" t="s">
-        <v>770</v>
+      <c r="I184" s="11" t="s">
+        <v>773</v>
       </c>
       <c r="J184" s="14" t="n">
         <v>0</v>
@@ -9891,152 +9937,152 @@
         <v>771</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="185">
-      <c r="A185" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="185">
+      <c r="A185" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E185" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="F185" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="J185" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="186">
+      <c r="A186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K185" s="1" t="s">
+      <c r="K186" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="186">
-      <c r="A186" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="B186" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="187">
+      <c r="A187" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C186" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="D186" s="5" t="s">
+      <c r="C187" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E186" s="8" t="n">
+      <c r="E187" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I186" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="J186" s="9" t="n">
+      <c r="I187" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="J187" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K186" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="187">
-      <c r="A187" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="B187" s="11" t="s">
+      <c r="K187" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="188">
+      <c r="A188" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B188" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="D187" s="11" t="s">
+      <c r="C188" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E187" s="15" t="n">
+      <c r="E188" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="G187" s="11" t="s">
+      <c r="F188" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="G188" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H187" s="11" t="s">
+      <c r="H188" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I187" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="J187" s="14" t="n">
+      <c r="I188" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="J188" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K187" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="188">
-      <c r="A188" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E188" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I188" s="5" t="s">
+      <c r="K188" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="J188" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" s="5" t="s">
-        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="189">
       <c r="A189" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>787</v>
@@ -10048,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>74</v>
+        <v>788</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>203</v>
@@ -10057,29 +10103,64 @@
         <v>203</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J189" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="190">
-      <c r="A190" s="52" t="s">
-        <v>790</v>
-      </c>
-      <c r="B190" s="52"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="52"/>
-      <c r="E190" s="52"/>
-      <c r="F190" s="52"/>
-      <c r="G190" s="52"/>
-      <c r="H190" s="52"/>
-      <c r="I190" s="52"/>
-      <c r="J190" s="52"/>
-      <c r="K190" s="52"/>
+      <c r="A190" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="J190" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="191">
+      <c r="A191" s="52" t="s">
+        <v>795</v>
+      </c>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="52"/>
+      <c r="J191" s="52"/>
+      <c r="K191" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -10103,9 +10184,9 @@
     <mergeCell ref="A141:E141"/>
     <mergeCell ref="A147:C147"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A190:K190"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A191:K191"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sits/msit_lyran.xlsx
+++ b/sits/msit_lyran.xlsx
@@ -108,7 +108,7 @@
     <t>DN(2)</t>
   </si>
   <si>
-    <t>From CA or CC: 6 From CA + DND: 2 From CC + DND: 2</t>
+    <t>From CA/CC: 6 From CA + DND: 2 From CC + DND: 2</t>
   </si>
   <si>
     <t>Schedule: 16</t>
@@ -3983,8 +3983,8 @@
   </sheetPr>
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A161" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H165" activeCellId="0" pane="topLeft" sqref="H165"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H7" activeCellId="0" pane="topLeft" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
